--- a/outputs-GTDB-r202/f__Oscillospiraceae.xlsx
+++ b/outputs-GTDB-r202/f__Oscillospiraceae.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__CAG-110(reject)</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__CAG-110(reject)</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__CAG-110(reject)</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>g__CAG-110</t>
+          <t>g__CAG-110(reject)</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="BD39" t="inlineStr">
         <is>
-          <t>g__Marseille-P3106</t>
+          <t>g__Marseille-P3106(reject)</t>
         </is>
       </c>
     </row>
